--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H2">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I2">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J2">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.228108666666667</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N2">
-        <v>6.684326</v>
+        <v>0.337432</v>
       </c>
       <c r="O2">
-        <v>0.5687849952918403</v>
+        <v>0.7871437602495106</v>
       </c>
       <c r="P2">
-        <v>0.5687849952918405</v>
+        <v>0.7871437602495107</v>
       </c>
       <c r="Q2">
-        <v>224.6766499570976</v>
+        <v>2.938777733885333</v>
       </c>
       <c r="R2">
-        <v>2022.089849613878</v>
+        <v>26.448999604968</v>
       </c>
       <c r="S2">
-        <v>0.3726671090371478</v>
+        <v>0.2099306792231572</v>
       </c>
       <c r="T2">
-        <v>0.3726671090371479</v>
+        <v>0.2099306792231573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H3">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I3">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J3">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1124773333333334</v>
+        <v>0.03041566666666666</v>
       </c>
       <c r="N3">
-        <v>0.3374320000000001</v>
+        <v>0.09124699999999999</v>
       </c>
       <c r="O3">
-        <v>0.02871288122861098</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="P3">
-        <v>0.02871288122861098</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="Q3">
-        <v>11.34192009012178</v>
+        <v>0.7946924176836667</v>
       </c>
       <c r="R3">
-        <v>102.077280811096</v>
+        <v>7.152231759153</v>
       </c>
       <c r="S3">
-        <v>0.01881263839265513</v>
+        <v>0.05676860726628009</v>
       </c>
       <c r="T3">
-        <v>0.01881263839265513</v>
+        <v>0.05676860726628011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100.8373843333333</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H4">
-        <v>302.512153</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I4">
-        <v>0.6551985585448407</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J4">
-        <v>0.6551985585448408</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.576726666666667</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N4">
-        <v>4.73018</v>
+        <v>0.337432</v>
       </c>
       <c r="O4">
-        <v>0.4025021234795486</v>
+        <v>0.7871437602495106</v>
       </c>
       <c r="P4">
-        <v>0.4025021234795487</v>
+        <v>0.7871437602495107</v>
       </c>
       <c r="Q4">
-        <v>158.9929928752822</v>
+        <v>2.689104636028444</v>
       </c>
       <c r="R4">
-        <v>1430.93693587754</v>
+        <v>24.201941724256</v>
       </c>
       <c r="S4">
-        <v>0.2637188111150377</v>
+        <v>0.1920953586364756</v>
       </c>
       <c r="T4">
-        <v>0.2637188111150378</v>
+        <v>0.1920953586364756</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.228108666666667</v>
+        <v>0.03041566666666666</v>
       </c>
       <c r="N5">
-        <v>6.684326</v>
+        <v>0.09124699999999999</v>
       </c>
       <c r="O5">
-        <v>0.5687849952918403</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="P5">
-        <v>0.5687849952918405</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="Q5">
-        <v>53.26955367400089</v>
+        <v>0.7271768259195553</v>
       </c>
       <c r="R5">
-        <v>479.425983066008</v>
+        <v>6.544591433275999</v>
       </c>
       <c r="S5">
-        <v>0.08835724838865021</v>
+        <v>0.05194565183356199</v>
       </c>
       <c r="T5">
-        <v>0.08835724838865022</v>
+        <v>0.05194565183356201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.90796933333333</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H6">
-        <v>71.72390799999999</v>
+        <v>143.793938</v>
       </c>
       <c r="I6">
-        <v>0.1553438454249564</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J6">
-        <v>0.1553438454249564</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,33 +800,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1124773333333334</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N6">
-        <v>0.3374320000000001</v>
+        <v>0.337432</v>
       </c>
       <c r="O6">
-        <v>0.02871288122861098</v>
+        <v>0.7871437602495106</v>
       </c>
       <c r="P6">
-        <v>0.02871288122861098</v>
+        <v>0.7871437602495107</v>
       </c>
       <c r="Q6">
-        <v>2.689104636028445</v>
+        <v>5.391186231912887</v>
       </c>
       <c r="R6">
-        <v>24.201941724256</v>
+        <v>48.52067608721599</v>
       </c>
       <c r="S6">
-        <v>0.004460369383282476</v>
+        <v>0.3851177223898778</v>
       </c>
       <c r="T6">
-        <v>0.004460369383282477</v>
+        <v>0.3851177223898779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.90796933333333</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H7">
-        <v>71.72390799999999</v>
+        <v>143.793938</v>
       </c>
       <c r="I7">
-        <v>0.1553438454249564</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J7">
-        <v>0.1553438454249564</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.576726666666667</v>
+        <v>0.03041566666666666</v>
       </c>
       <c r="N7">
-        <v>4.73018</v>
+        <v>0.09124699999999999</v>
       </c>
       <c r="O7">
-        <v>0.4025021234795486</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="P7">
-        <v>0.4025021234795487</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="Q7">
-        <v>37.69633279371555</v>
+        <v>1.457862828965111</v>
       </c>
       <c r="R7">
-        <v>339.2669951434399</v>
+        <v>13.120765460686</v>
       </c>
       <c r="S7">
-        <v>0.06252622765302372</v>
+        <v>0.1041419806506472</v>
       </c>
       <c r="T7">
-        <v>0.06252622765302372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>29.15819666666667</v>
-      </c>
-      <c r="H8">
-        <v>87.47459000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.1894575960302029</v>
-      </c>
-      <c r="J8">
-        <v>0.1894575960302029</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.228108666666667</v>
-      </c>
-      <c r="N8">
-        <v>6.684326</v>
-      </c>
-      <c r="O8">
-        <v>0.5687849952918403</v>
-      </c>
-      <c r="P8">
-        <v>0.5687849952918405</v>
-      </c>
-      <c r="Q8">
-        <v>64.96763069737112</v>
-      </c>
-      <c r="R8">
-        <v>584.70867627634</v>
-      </c>
-      <c r="S8">
-        <v>0.1077606378660424</v>
-      </c>
-      <c r="T8">
-        <v>0.1077606378660424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>29.15819666666667</v>
-      </c>
-      <c r="H9">
-        <v>87.47459000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.1894575960302029</v>
-      </c>
-      <c r="J9">
-        <v>0.1894575960302029</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1124773333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.3374320000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.02871288122861098</v>
-      </c>
-      <c r="P9">
-        <v>0.02871288122861098</v>
-      </c>
-      <c r="Q9">
-        <v>3.279636205875557</v>
-      </c>
-      <c r="R9">
-        <v>29.51672585288001</v>
-      </c>
-      <c r="S9">
-        <v>0.005439873452673375</v>
-      </c>
-      <c r="T9">
-        <v>0.005439873452673377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>29.15819666666667</v>
-      </c>
-      <c r="H10">
-        <v>87.47459000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.1894575960302029</v>
-      </c>
-      <c r="J10">
-        <v>0.1894575960302029</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.576726666666667</v>
-      </c>
-      <c r="N10">
-        <v>4.73018</v>
-      </c>
-      <c r="O10">
-        <v>0.4025021234795486</v>
-      </c>
-      <c r="P10">
-        <v>0.4025021234795487</v>
-      </c>
-      <c r="Q10">
-        <v>45.97450623624444</v>
-      </c>
-      <c r="R10">
-        <v>413.7705561262</v>
-      </c>
-      <c r="S10">
-        <v>0.07625708471148718</v>
-      </c>
-      <c r="T10">
-        <v>0.07625708471148719</v>
+        <v>0.1041419806506472</v>
       </c>
     </row>
   </sheetData>
